--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/AVGScripts/后续引导AVG/战斗引导_主线序章2.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/AVGScripts/后续引导AVG/战斗引导_主线序章2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Windows\MOBI\mobi_client\mobi_config\excel\AVGScripts\后续引导AVG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="11970"/>
+    <workbookView windowWidth="28125" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_C0_battle02" sheetId="12" r:id="rId1"/>
@@ -20,10 +15,10 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C0_battle02!$A$1:$J$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Intro_C0_battle02_2!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C0_battle02!$A$1:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Intro_C0_battle02_2!$A$1:$J$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -33,14 +28,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -49,7 +43,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,14 +50,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>liuweiguang:</t>
@@ -73,7 +65,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -94,14 +85,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -110,7 +100,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -118,14 +107,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>liuweiguang:</t>
@@ -134,7 +122,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -150,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>说明</t>
   </si>
@@ -248,7 +235,7 @@
     <t>wo</t>
   </si>
   <si>
-    <t>诶！？你用的……跟那个叫涂凌的不一样。</t>
+    <t>诶！？你用的……跟那个叫鲨鱼服的不一样。</t>
   </si>
   <si>
     <t>设置角色</t>
@@ -260,28 +247,36 @@
     <t>pos=中</t>
   </si>
   <si>
-    <t>涂凌_思考_动作_循环_01</t>
+    <t>角色动作</t>
   </si>
   <si>
-    <t>我的常用异质物就是这两个小家伙~</t>
+    <t>凯瑟琳_严肃_动作_循环_01</t>
   </si>
   <si>
-    <t>范围性打击的【1-047织线偶童】与强力防御的【2-120禁止通行】</t>
+    <t>角色表情</t>
   </si>
   <si>
-    <t>type=2,offx=0,offy=0.3,bubbleFliX=1,bubbleStyle=4,recall=1,scale=0.25</t>
+    <t>凯瑟琳_得意_上脸_开始_01;凯瑟琳_得意_下嘴_开始_01</t>
+  </si>
+  <si>
+    <t>你说的是涂凌吗？</t>
+  </si>
+  <si>
+    <t>type=0</t>
+  </si>
+  <si>
+    <t>我的常用异质物
+就是这两个小家伙~</t>
+  </si>
+  <si>
+    <t>范围性打击的【1-047织线偶童】
+与强力防御的【2-120禁止通行】</t>
+  </si>
+  <si>
+    <t>凯瑟琳_得意_动作_循环_01</t>
   </si>
   <si>
     <t>就像抗生素配点激素才能达到最佳药效~</t>
-  </si>
-  <si>
-    <t>每次行动都会积攒能量，到了峰值后，让织线偶童一次性释放掉吧。</t>
-  </si>
-  <si>
-    <t>特殊-闪白效果</t>
-  </si>
-  <si>
-    <t>voice_ding</t>
   </si>
   <si>
     <t>移除角色</t>
@@ -293,28 +288,46 @@
     <t>结束</t>
   </si>
   <si>
+    <t>能量介绍</t>
+  </si>
+  <si>
+    <t>&lt;z=green&gt;每次行动都会积攒一点能量值&lt;/z&gt;</t>
+  </si>
+  <si>
+    <t>type=1</t>
+  </si>
+  <si>
+    <t>&lt;z=green&gt;能量值攒满后，会转化为一次终结技次数&lt;/z&gt;</t>
+  </si>
+  <si>
+    <t>voice_ding</t>
+  </si>
+  <si>
+    <t>引导偶童</t>
+  </si>
+  <si>
+    <t>&lt;z=green&gt;就是现在！释放织线偶童的终结技！&lt;/z&gt;</t>
+  </si>
+  <si>
     <t>avg_basic_story_new</t>
+  </si>
+  <si>
+    <t>pos=左</t>
   </si>
   <si>
     <t>那个，禁止通行，好像有点撑不住了！？</t>
   </si>
   <si>
-    <t>角色动作</t>
-  </si>
-  <si>
-    <t>凯瑟琳_惊讶_动作_循环_01</t>
-  </si>
-  <si>
-    <t>角色表情</t>
-  </si>
-  <si>
-    <t>凯瑟琳_平静_上脸_开始_01;凯瑟琳_惊讶_下嘴_开始_01</t>
+    <t>凯瑟琳_严肃_上脸_开始_01;凯瑟琳_严肃_下嘴_开始_01</t>
   </si>
   <si>
     <t>你的【伊斯坦布尔】，他可以喝吗？</t>
   </si>
   <si>
-    <t>当然~它就是作为异质物修复药研发的。</t>
+    <t>当然~</t>
+  </si>
+  <si>
+    <t>它就是作为异质物修复药研发的。</t>
   </si>
   <si>
     <t>说明文档位置</t>
@@ -335,8 +348,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,7 +368,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -357,14 +375,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -372,7 +388,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -380,14 +395,12 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -395,60 +408,188 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFDE7802"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,13 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39930417798394724"/>
+        <fgColor theme="3" tint="0.399304177983947"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,8 +632,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -515,15 +836,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -540,142 +1103,186 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AVG指令文档"/>
@@ -783,6 +1390,8 @@
             <v>pos=0
 【每一个增加一个位置都具有编号，位置提前在编辑器中配置好，此处只是调用，现在可填写位置名称】</v>
           </cell>
+        </row>
+        <row r="10">
           <cell r="H10" t="str">
             <v>TRUE;TRUE;TRUE
 【是否根据站位自动移动相机（默认TRUE）|是否自动转1，2位置的角度（默认TRUE）|是否半透明渐变出现（默认TRUE）】</v>
@@ -800,6 +1409,8 @@
             <v>mj_001;duijiangji02
 【用分号隔开每个挂件的名字】</v>
           </cell>
+        </row>
+        <row r="11">
           <cell r="H11" t="str">
             <v>FALSE;FALSE
 【FALSE为不显示对应param填写的对应位置
@@ -1107,6 +1718,8 @@
 方向填写“无”为恢复转头。{角色转头,,无}
 】</v>
           </cell>
+        </row>
+        <row r="30">
           <cell r="H30" t="str">
             <v>0.5（耗费时间）</v>
           </cell>
@@ -1288,6 +1901,8 @@
           <cell r="D46" t="str">
             <v>打开特效板</v>
           </cell>
+        </row>
+        <row r="46">
           <cell r="F46" t="str">
             <v>boardBgName
 【特效背景板图片名称，可不填】
@@ -1303,6 +1918,8 @@
           <cell r="D47" t="str">
             <v>特效板动作</v>
           </cell>
+        </row>
+        <row r="47">
           <cell r="G47" t="str">
             <v>effectName
 Assets\Resources\avg\effectboard\prefabs\</v>
@@ -1316,6 +1933,8 @@
           <cell r="D48" t="str">
             <v>关闭特效板</v>
           </cell>
+        </row>
+        <row r="48">
           <cell r="G48" t="str">
             <v>effectName
 【挂在特效板上的粒子特效名，可不填，若不填就关闭整个板子】</v>
@@ -1505,6 +2124,8 @@
             <v>infoIndex
 【记录索引，默认-1】</v>
           </cell>
+        </row>
+        <row r="59">
           <cell r="I59" t="str">
             <v>PS：简易配置方式{&amp;涂凌}</v>
           </cell>
@@ -1521,6 +2142,8 @@
             <v>0，1，2
 【填入子任务状态，或者INACTIVE，ACTIVE,SUCCESS】</v>
           </cell>
+        </row>
+        <row r="60">
           <cell r="I60" t="str">
             <v>PS：简易配置方式{&amp;涂凌}</v>
           </cell>
@@ -1537,6 +2160,8 @@
             <v>0，1，2，3，4
 【填入一个数值使得子任务的进度增加，不填默认填入1】</v>
           </cell>
+        </row>
+        <row r="61">
           <cell r="I61" t="str">
             <v>PS：简易配置方式{&amp;涂凌}</v>
           </cell>
@@ -1553,6 +2178,8 @@
             <v>talkTarget
 【交谈对象名】</v>
           </cell>
+        </row>
+        <row r="62">
           <cell r="H62" t="str">
             <v>offx=0.5
 【offx坐标偏移比例】</v>
@@ -1698,6 +2325,8 @@
           <cell r="D75" t="str">
             <v>单人推理</v>
           </cell>
+        </row>
+        <row r="75">
           <cell r="F75" t="str">
             <v>参数【int=单人推理表ID】</v>
           </cell>
@@ -1774,7 +2403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1809,7 +2438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2012,21 +2641,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="10" customWidth="1"/>
@@ -2039,7 +2668,7 @@
     <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2061,15 +2690,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="145.5" customHeight="1" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="17" t="str">
-        <f ca="1">INDEX($D$5:$D$886,CELL("row")-4)</f>
-        <v>移除角色</v>
+      <c r="D2" s="17">
+        <f ca="1">INDEX($D$5:$D$897,CELL("row")-4)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="18" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -2087,11 +2716,11 @@
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
@@ -2169,9 +2798,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="29">
-        <f t="shared" ref="A6:A19" si="0">ROW()-6</f>
+        <f>ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -2190,9 +2819,9 @@
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A7" s="29">
-        <f t="shared" si="0"/>
+        <f>ROW()-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="31"/>
@@ -2209,9 +2838,9 @@
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A8" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8:A14" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="31"/>
@@ -2228,26 +2857,26 @@
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:10" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
+    <row r="9" s="42" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A9" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="44">
         <v>1</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="E9" s="44"/>
+      <c r="F9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A10" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2264,10 +2893,10 @@
         <v>30</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="38"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A11" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2280,14 +2909,14 @@
       <c r="E11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="39" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="33"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="38"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2300,208 +2929,424 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="35" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33">
+      <c r="H12" s="36"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" s="9" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A13" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="33"/>
-      <c r="I13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33">
+      <c r="H13" s="38"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" s="9" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="38"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A15" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A15:A23" si="1">ROW()-6</f>
         <v>9</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="33">
-        <v>1</v>
-      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="39" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="33"/>
-      <c r="H15" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A16" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="33"/>
-      <c r="D16" t="s">
+      <c r="D16" s="33" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
-        <f t="shared" si="0"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" s="9" customFormat="1" ht="63" customHeight="1" spans="1:9">
+      <c r="A17" s="33">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="33">
+        <v>26</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" s="9" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A18" s="29">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="33"/>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A19" s="33">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="33">
         <v>1</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="G19" s="33"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="33">
-        <f>ROW()-6</f>
+      <c r="H19" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
+      <c r="A20" s="29">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34" t="s">
         <v>46</v>
       </c>
+      <c r="E20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="34"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
-        <f>ROW()-6</f>
+      <c r="H20" s="38"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" s="9" customFormat="1" ht="11.25" spans="1:9">
+      <c r="A21" s="33">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>46</v>
-      </c>
+      <c r="B21" s="30"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="I21" s="39"/>
+      <c r="F21" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A22" s="33">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A23" s="29">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A24" s="33">
+        <f t="shared" ref="A24:A32" si="2">ROW()-6</f>
+        <v>18</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="33"/>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A25" s="33">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" s="9" customFormat="1" ht="12" spans="1:9">
+      <c r="A26" s="29">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" s="9" customFormat="1" ht="11.25" spans="1:9">
+      <c r="A27" s="33">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A28" s="33">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A29" s="29">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A30" s="33">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="11.25" spans="1:9">
+      <c r="A31" s="33">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A32" s="29">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="I32" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <autoFilter ref="A1:J32">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="10" customWidth="1"/>
@@ -2514,7 +3359,7 @@
     <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2536,14 +3381,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="145.5" customHeight="1" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17">
-        <f ca="1">INDEX($D$5:$D$883,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$886,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="18" t="e">
@@ -2562,11 +3407,11 @@
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +3437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
@@ -2618,7 +3463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
@@ -2644,9 +3489,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="29">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A8" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -2659,9 +3504,9 @@
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="7" s="9" customFormat="1" ht="11.25" spans="1:9">
       <c r="A7" s="33">
-        <f t="shared" ref="A7:A17" si="0">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="30"/>
@@ -2670,237 +3515,305 @@
         <v>28</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A8" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="33"/>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="36"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="13.5" spans="1:9">
       <c r="A9" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A9:A14" si="1">ROW()-6</f>
         <v>3</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="33"/>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="G9" s="33"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="33"/>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>52</v>
+      <c r="F10" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="H10" s="38"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A11" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>26</v>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G11" s="33"/>
-      <c r="H11" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="H11" s="38"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="13.5" spans="1:9">
       <c r="A12" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" s="9" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A13" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="G13" s="33"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" s="9" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A14" s="29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="33"/>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32" t="s">
+      <c r="F14" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" s="9" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A15" s="29">
+        <f t="shared" ref="A15:A21" si="2">ROW()-6</f>
+        <v>9</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A16" s="29">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A17" s="29">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F17" s="32">
         <v>1</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32" t="s">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A18" s="29">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F18" s="32">
         <v>1</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A19" s="29">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F19" s="32">
         <v>1</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="33">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
-        <f>ROW()-6</f>
-        <v>12</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="I18" s="39"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="11.25" spans="1:9">
+      <c r="A20" s="33">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A21" s="29">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="I21" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J18"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <autoFilter ref="A1:J21">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AM201"/>
   <sheetViews>
@@ -2908,7 +3821,7 @@
       <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
@@ -2927,12 +3840,12 @@
     <col min="40" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -2998,12 +3911,12 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([1]AVG指令文档!D5&lt;&gt;0,[1]AVG指令文档!D5,"")</f>
@@ -3058,9 +3971,9 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -3120,7 +4033,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39">
       <c r="A4" s="6"/>
       <c r="AA4" s="2" t="str">
         <f>IF([1]AVG指令文档!D7&lt;&gt;0,[1]AVG指令文档!D7,"")</f>
@@ -3177,7 +4090,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3238,7 +4151,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3301,7 +4214,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3370,7 +4283,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -3439,7 +4352,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3508,7 +4421,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3573,7 +4486,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3646,7 +4559,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3716,7 +4629,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3783,7 +4696,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3871,7 +4784,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3936,7 +4849,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4004,7 +4917,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4073,7 +4986,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4140,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4207,7 +5120,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4278,7 +5191,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4347,7 +5260,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4413,7 +5326,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4481,7 +5394,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4548,7 +5461,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4618,7 +5531,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:39">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -4688,7 +5601,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:39">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -4755,7 +5668,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -4820,7 +5733,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -4889,7 +5802,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:39">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -4957,7 +5870,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5022,7 +5935,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:39">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5091,7 +6004,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:39">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5156,7 +6069,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:39">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5222,7 +6135,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:39">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -5288,7 +6201,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:39">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -5356,7 +6269,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:39">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -5423,7 +6336,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:39">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5488,7 +6401,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:39">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5558,7 +6471,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:39">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5627,7 +6540,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:39">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -5692,7 +6605,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:39">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -5761,7 +6674,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:39">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -5828,7 +6741,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:39">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -5894,7 +6807,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:39">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -5968,7 +6881,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:39">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -6040,7 +6953,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:39">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -6111,7 +7024,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:39">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -6183,7 +7096,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:39">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -6249,7 +7162,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:39">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -6315,7 +7228,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:39">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -6387,7 +7300,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:39">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -6453,7 +7366,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:39">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -6519,7 +7432,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:39">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -6584,7 +7497,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:39">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -6652,7 +7565,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:39">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -6719,7 +7632,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:39">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -6786,7 +7699,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:39">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -6854,7 +7767,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:39">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -6923,7 +7836,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:39">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -6990,7 +7903,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:39">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -7059,7 +7972,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:39">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -7125,7 +8038,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:39">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -7190,7 +8103,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:39">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -7257,7 +8170,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:39">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -7324,7 +8237,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:39">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -7389,7 +8302,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:39">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -7454,7 +8367,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:39">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -7519,7 +8432,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:39">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -7584,7 +8497,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:39">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -7650,7 +8563,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:39">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7715,7 +8628,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:39">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -7783,7 +8696,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:39">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -7848,7 +8761,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:39">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -7913,7 +8826,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:39">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -7978,7 +8891,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:39">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -8043,7 +8956,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:39">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8108,7 +9021,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:39">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8173,7 +9086,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:39">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8238,7 +9151,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:39">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8303,7 +9216,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:39">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8368,7 +9281,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:39">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8433,7 +9346,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:39">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8498,7 +9411,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:39">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8563,7 +9476,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:39">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8628,7 +9541,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:39">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8693,7 +9606,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:39">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8758,7 +9671,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:39">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8823,7 +9736,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:39">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8888,7 +9801,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:39">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8953,7 +9866,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:39">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -9018,7 +9931,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:39">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -9083,7 +9996,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:39">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -9148,7 +10061,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:39">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9213,7 +10126,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:39">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -9278,7 +10191,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:39">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -9343,7 +10256,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:39">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -9408,7 +10321,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:39">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -9473,7 +10386,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:39">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -9538,7 +10451,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:39">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -9603,7 +10516,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:39">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -9668,7 +10581,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:39">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -9733,7 +10646,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:39">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -9798,7 +10711,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:39">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -9863,7 +10776,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:39">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -9928,7 +10841,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:39">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -9993,7 +10906,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:39">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -10058,7 +10971,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:39">
       <c r="A108" s="1">
         <v>104</v>
       </c>
@@ -10123,7 +11036,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:39">
       <c r="A109" s="1">
         <v>105</v>
       </c>
@@ -10188,7 +11101,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:39">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -10253,7 +11166,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:39">
       <c r="A111" s="1">
         <v>107</v>
       </c>
@@ -10318,7 +11231,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:39">
       <c r="A112" s="1">
         <v>108</v>
       </c>
@@ -10383,7 +11296,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:39">
       <c r="A113" s="1">
         <v>109</v>
       </c>
@@ -10448,7 +11361,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:39">
       <c r="A114" s="1">
         <v>110</v>
       </c>
@@ -10513,7 +11426,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:39">
       <c r="A115" s="1">
         <v>111</v>
       </c>
@@ -10578,7 +11491,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:39">
       <c r="A116" s="1">
         <v>112</v>
       </c>
@@ -10643,7 +11556,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:39">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -10708,7 +11621,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:39">
       <c r="A118" s="1">
         <v>114</v>
       </c>
@@ -10773,7 +11686,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:39">
       <c r="A119" s="1">
         <v>115</v>
       </c>
@@ -10838,7 +11751,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:39">
       <c r="A120" s="1">
         <v>116</v>
       </c>
@@ -10903,7 +11816,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:39">
       <c r="A121" s="1">
         <v>117</v>
       </c>
@@ -10968,7 +11881,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:39">
       <c r="A122" s="1">
         <v>118</v>
       </c>
@@ -11033,7 +11946,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:39">
       <c r="A123" s="1">
         <v>119</v>
       </c>
@@ -11098,7 +12011,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:39">
       <c r="A124" s="1">
         <v>120</v>
       </c>
@@ -11163,7 +12076,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:39">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -11228,7 +12141,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:39">
       <c r="A126" s="1">
         <v>122</v>
       </c>
@@ -11293,7 +12206,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:39">
       <c r="A127" s="1">
         <v>123</v>
       </c>
@@ -11358,7 +12271,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:39">
       <c r="A128" s="1">
         <v>124</v>
       </c>
@@ -11423,7 +12336,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:39">
       <c r="A129" s="1">
         <v>125</v>
       </c>
@@ -11488,7 +12401,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:39">
       <c r="A130" s="1">
         <v>126</v>
       </c>
@@ -11553,7 +12466,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:39">
       <c r="A131" s="1">
         <v>127</v>
       </c>
@@ -11618,7 +12531,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:39">
       <c r="A132" s="1">
         <v>128</v>
       </c>
@@ -11683,7 +12596,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:39">
       <c r="A133" s="1">
         <v>129</v>
       </c>
@@ -11748,7 +12661,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:39">
       <c r="A134" s="1">
         <v>130</v>
       </c>
@@ -11813,7 +12726,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:39">
       <c r="A135" s="1">
         <v>131</v>
       </c>
@@ -11878,7 +12791,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:39">
       <c r="A136" s="1">
         <v>132</v>
       </c>
@@ -11943,7 +12856,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:39">
       <c r="A137" s="1">
         <v>133</v>
       </c>
@@ -12008,7 +12921,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:39">
       <c r="A138" s="1">
         <v>134</v>
       </c>
@@ -12073,7 +12986,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:39">
       <c r="A139" s="1">
         <v>135</v>
       </c>
@@ -12138,7 +13051,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:39">
       <c r="A140" s="1">
         <v>136</v>
       </c>
@@ -12203,7 +13116,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:39">
       <c r="A141" s="1">
         <v>137</v>
       </c>
@@ -12268,7 +13181,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:39">
       <c r="A142" s="1">
         <v>138</v>
       </c>
@@ -12333,7 +13246,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:39">
       <c r="A143" s="1">
         <v>139</v>
       </c>
@@ -12398,7 +13311,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:39">
       <c r="A144" s="1">
         <v>140</v>
       </c>
@@ -12463,7 +13376,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:39">
       <c r="A145" s="1">
         <v>141</v>
       </c>
@@ -12528,7 +13441,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:39">
       <c r="A146" s="1">
         <v>142</v>
       </c>
@@ -12593,7 +13506,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:39">
       <c r="A147" s="1">
         <v>143</v>
       </c>
@@ -12658,7 +13571,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:39">
       <c r="A148" s="1">
         <v>144</v>
       </c>
@@ -12723,7 +13636,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:39">
       <c r="A149" s="1">
         <v>145</v>
       </c>
@@ -12788,7 +13701,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:39">
       <c r="A150" s="1">
         <v>146</v>
       </c>
@@ -12853,7 +13766,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:39">
       <c r="A151" s="1">
         <v>147</v>
       </c>
@@ -12918,7 +13831,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:39">
       <c r="A152" s="1">
         <v>148</v>
       </c>
@@ -12983,7 +13896,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:39">
       <c r="A153" s="1">
         <v>149</v>
       </c>
@@ -13048,7 +13961,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:39">
       <c r="A154" s="1">
         <v>150</v>
       </c>
@@ -13113,7 +14026,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:39">
       <c r="A155" s="1">
         <v>151</v>
       </c>
@@ -13178,7 +14091,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:39">
       <c r="A156" s="1">
         <v>152</v>
       </c>
@@ -13243,7 +14156,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:39">
       <c r="A157" s="1">
         <v>153</v>
       </c>
@@ -13308,7 +14221,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:39">
       <c r="A158" s="1">
         <v>154</v>
       </c>
@@ -13373,7 +14286,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:39">
       <c r="A159" s="1">
         <v>155</v>
       </c>
@@ -13438,7 +14351,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:39">
       <c r="A160" s="1">
         <v>156</v>
       </c>
@@ -13503,7 +14416,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:39">
       <c r="A161" s="1">
         <v>157</v>
       </c>
@@ -13568,7 +14481,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:39">
       <c r="A162" s="1">
         <v>158</v>
       </c>
@@ -13633,7 +14546,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:39">
       <c r="A163" s="1">
         <v>159</v>
       </c>
@@ -13698,7 +14611,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:39">
       <c r="A164" s="1">
         <v>160</v>
       </c>
@@ -13763,7 +14676,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:39">
       <c r="A165" s="1">
         <v>161</v>
       </c>
@@ -13828,7 +14741,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:39">
       <c r="A166" s="1">
         <v>162</v>
       </c>
@@ -13893,7 +14806,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:39">
       <c r="A167" s="1">
         <v>163</v>
       </c>
@@ -13958,7 +14871,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:39">
       <c r="A168" s="1">
         <v>164</v>
       </c>
@@ -14023,7 +14936,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:39">
       <c r="A169" s="1">
         <v>165</v>
       </c>
@@ -14088,7 +15001,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:39">
       <c r="A170" s="1">
         <v>166</v>
       </c>
@@ -14153,7 +15066,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:39">
       <c r="A171" s="1">
         <v>167</v>
       </c>
@@ -14218,7 +15131,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:39">
       <c r="A172" s="1">
         <v>168</v>
       </c>
@@ -14283,7 +15196,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:39">
       <c r="A173" s="1">
         <v>169</v>
       </c>
@@ -14348,7 +15261,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:39">
       <c r="A174" s="1">
         <v>170</v>
       </c>
@@ -14413,7 +15326,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:39">
       <c r="A175" s="1">
         <v>171</v>
       </c>
@@ -14478,7 +15391,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:39">
       <c r="A176" s="1">
         <v>172</v>
       </c>
@@ -14543,7 +15456,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:39">
       <c r="A177" s="1">
         <v>173</v>
       </c>
@@ -14608,7 +15521,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:39">
       <c r="A178" s="1">
         <v>174</v>
       </c>
@@ -14673,7 +15586,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:39">
       <c r="A179" s="1">
         <v>175</v>
       </c>
@@ -14738,7 +15651,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:39">
       <c r="A180" s="1">
         <v>176</v>
       </c>
@@ -14803,7 +15716,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:39">
       <c r="A181" s="1">
         <v>177</v>
       </c>
@@ -14868,7 +15781,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:39">
       <c r="A182" s="1">
         <v>178</v>
       </c>
@@ -14933,7 +15846,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:39">
       <c r="A183" s="1">
         <v>179</v>
       </c>
@@ -14998,7 +15911,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:39">
       <c r="A184" s="1">
         <v>180</v>
       </c>
@@ -15063,7 +15976,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:39">
       <c r="A185" s="1">
         <v>181</v>
       </c>
@@ -15128,7 +16041,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:39">
       <c r="A186" s="1">
         <v>182</v>
       </c>
@@ -15193,7 +16106,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:39">
       <c r="A187" s="1">
         <v>183</v>
       </c>
@@ -15258,7 +16171,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:39">
       <c r="A188" s="1">
         <v>184</v>
       </c>
@@ -15323,7 +16236,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:39">
       <c r="A189" s="1">
         <v>185</v>
       </c>
@@ -15388,7 +16301,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:39">
       <c r="A190" s="1">
         <v>186</v>
       </c>
@@ -15453,7 +16366,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:39">
       <c r="A191" s="1">
         <v>187</v>
       </c>
@@ -15518,7 +16431,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:39">
       <c r="A192" s="1">
         <v>188</v>
       </c>
@@ -15583,7 +16496,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:39">
       <c r="A193" s="1">
         <v>189</v>
       </c>
@@ -15648,7 +16561,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:39">
       <c r="A194" s="1">
         <v>190</v>
       </c>
@@ -15713,7 +16626,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:39">
       <c r="A195" s="1">
         <v>191</v>
       </c>
@@ -15778,7 +16691,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:39">
       <c r="A196" s="1">
         <v>192</v>
       </c>
@@ -15843,7 +16756,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:39">
       <c r="A197" s="1">
         <v>193</v>
       </c>
@@ -15908,7 +16821,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:39">
       <c r="A198" s="1">
         <v>194</v>
       </c>
@@ -15973,7 +16886,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:39">
       <c r="A199" s="1">
         <v>195</v>
       </c>
@@ -16038,7 +16951,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>196</v>
       </c>
@@ -16051,7 +16964,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>197</v>
       </c>
@@ -16065,8 +16978,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>